--- a/InputData/ccs/CC/CCS Costs.xlsx
+++ b/InputData/ccs/CC/CCS Costs.xlsx
@@ -5,26 +5,38 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\ccs\CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\ccs\CC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="13860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5445"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Calculations" sheetId="3" r:id="rId3"/>
-    <sheet name="CC-CCoEtSOToCpY" sheetId="4" r:id="rId4"/>
-    <sheet name="CC-TOMCpTS" sheetId="5" r:id="rId5"/>
-    <sheet name="CC-EUpTCS" sheetId="6" r:id="rId6"/>
+    <sheet name="Table Texas" sheetId="8" r:id="rId3"/>
+    <sheet name="Texas Notes" sheetId="7" r:id="rId4"/>
+    <sheet name="Calculations" sheetId="3" r:id="rId5"/>
+    <sheet name="CC-CCoEtSOToCpY" sheetId="4" r:id="rId6"/>
+    <sheet name="CC-TOMCpTS" sheetId="5" r:id="rId7"/>
+    <sheet name="CC-EUpTCS" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>Source:</t>
   </si>
@@ -252,15 +264,61 @@
   </si>
   <si>
     <t>sectors.</t>
+  </si>
+  <si>
+    <t>The EPS numbers are from ~2012, so a bit outdated</t>
+  </si>
+  <si>
+    <t>No reason to choose different numbers for Texas than for US. There are so few CCS examples in the US.</t>
+  </si>
+  <si>
+    <t>NREL ATB</t>
+  </si>
+  <si>
+    <t>NGCC-CCS</t>
+  </si>
+  <si>
+    <t>Incremental</t>
+  </si>
+  <si>
+    <t>ATB</t>
+  </si>
+  <si>
+    <t>So, in the CCS plant, for every MMBtu combusted, 105.3 lbs of CO2 are sequestered</t>
+  </si>
+  <si>
+    <t>kgCO2 sequestered/MMBtu fuel consumed</t>
+  </si>
+  <si>
+    <t>Incremental O&amp;M</t>
+  </si>
+  <si>
+    <t>Incremental Capital Cost</t>
+  </si>
+  <si>
+    <t>I decided to:</t>
+  </si>
+  <si>
+    <t>1. update the numbers using data from NREL ATB 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. use natural gas combined cycle for the power sector (instead of IGCC). There is no new coal being built in Texas, and lot of coal is retiring each year. So any power sector CCS will likely be on NGCC plants. </t>
+  </si>
+  <si>
+    <t>In the ATB data, adding CCS to the NGCC plant changes the CO2 emissions from 117 to 11.7 lbsCO2/MMBtu</t>
+  </si>
+  <si>
+    <t>converting from lbs to kg:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -315,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -403,13 +461,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -449,6 +522,32 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -758,31 +857,31 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.86328125" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,105 +889,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -906,23 +1005,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="B11:G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -945,7 +1046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -968,7 +1069,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -982,7 +1083,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1005,7 +1106,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1028,7 +1129,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -1051,7 +1152,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1175,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1198,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -1120,7 +1221,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
@@ -1131,7 +1232,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
@@ -1154,7 +1255,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -1200,7 +1301,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
@@ -1223,7 +1324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
@@ -1234,7 +1335,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
@@ -1257,7 +1358,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
@@ -1280,7 +1381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>28</v>
       </c>
@@ -1303,7 +1404,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
@@ -1326,7 +1427,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
@@ -1349,7 +1450,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
@@ -1372,7 +1473,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>32</v>
       </c>
@@ -1383,7 +1484,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
@@ -1406,7 +1507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="15" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +1530,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>15</v>
       </c>
@@ -1452,7 +1553,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
         <v>26</v>
       </c>
@@ -1475,7 +1576,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>27</v>
       </c>
@@ -1498,7 +1599,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="15" t="s">
         <v>28</v>
       </c>
@@ -1521,7 +1622,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="15" t="s">
         <v>29</v>
       </c>
@@ -1544,7 +1645,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>30</v>
       </c>
@@ -1567,7 +1668,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>31</v>
       </c>
@@ -1590,7 +1691,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
         <v>34</v>
       </c>
@@ -1601,7 +1702,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>35</v>
       </c>
@@ -1624,7 +1725,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="15" t="s">
         <v>36</v>
       </c>
@@ -1647,7 +1748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="20" t="s">
         <v>37</v>
       </c>
@@ -1677,213 +1778,775 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <f>'Table 2'!C9</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2012</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="35">
+        <v>2012</v>
+      </c>
+      <c r="F4" s="35">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="39">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1401</v>
+      </c>
+      <c r="C6" s="40">
+        <v>1145</v>
+      </c>
+      <c r="D6" s="40">
+        <v>1150</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1095</v>
+      </c>
+      <c r="F6" s="40">
+        <v>542</v>
+      </c>
+      <c r="G6" s="41">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="C7" s="40">
+        <v>6.1</v>
+      </c>
+      <c r="D7" s="40">
+        <v>7.4</v>
+      </c>
+      <c r="E7" s="40">
+        <v>6.1</v>
+      </c>
+      <c r="F7" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="41">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16">
+        <v>8081</v>
+      </c>
+      <c r="C8" s="40">
+        <v>7137</v>
+      </c>
+      <c r="D8" s="40">
+        <v>8277</v>
+      </c>
+      <c r="E8" s="40">
+        <v>8042</v>
+      </c>
+      <c r="F8" s="40">
+        <v>6201</v>
+      </c>
+      <c r="G8" s="41">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16">
+        <v>305</v>
+      </c>
+      <c r="C9" s="40">
         <v>275</v>
       </c>
-      <c r="C3">
-        <f>'Table 2'!G9</f>
-        <v>829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <f>'Table 2'!C13</f>
+      <c r="D9" s="40">
+        <v>529</v>
+      </c>
+      <c r="E9" s="40">
+        <v>476</v>
+      </c>
+      <c r="F9" s="40">
+        <v>921</v>
+      </c>
+      <c r="G9" s="42">
+        <f>'Texas Notes'!G16</f>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2.65</v>
+      </c>
+      <c r="C10" s="40">
+        <v>2.39</v>
+      </c>
+      <c r="D10" s="40">
+        <v>5.56</v>
+      </c>
+      <c r="E10" s="40">
+        <v>5</v>
+      </c>
+      <c r="F10" s="40">
+        <v>5.2</v>
+      </c>
+      <c r="G10" s="42">
+        <f>'Texas Notes'!G17</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0.317</v>
+      </c>
+      <c r="E11" s="40">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G11" s="42">
+        <f>'Texas Notes'!G18</f>
+        <v>0.35816539999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16">
         <v>6570</v>
       </c>
-      <c r="C4">
-        <f>'Table 2'!G13</f>
+      <c r="C13" s="40">
         <v>6570</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D13" s="40">
+        <v>6570</v>
+      </c>
+      <c r="E13" s="40">
+        <v>6570</v>
+      </c>
+      <c r="F13" s="40">
+        <v>6570</v>
+      </c>
+      <c r="G13" s="42">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="16">
+        <v>15</v>
+      </c>
+      <c r="C14" s="40">
+        <v>15</v>
+      </c>
+      <c r="D14" s="40">
+        <v>15</v>
+      </c>
+      <c r="E14" s="40">
+        <v>15</v>
+      </c>
+      <c r="F14" s="40">
+        <v>15</v>
+      </c>
+      <c r="G14" s="41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="C15" s="40">
+        <v>1.24</v>
+      </c>
+      <c r="D15" s="40">
+        <v>1.24</v>
+      </c>
+      <c r="E15" s="40">
+        <v>1.24</v>
+      </c>
+      <c r="F15" s="40">
+        <v>2.93</v>
+      </c>
+      <c r="G15" s="41">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="16">
+        <v>90</v>
+      </c>
+      <c r="C16" s="40">
+        <v>90</v>
+      </c>
+      <c r="D16" s="40">
+        <v>90</v>
+      </c>
+      <c r="E16" s="40">
+        <v>90</v>
+      </c>
+      <c r="F16" s="40">
+        <v>90</v>
+      </c>
+      <c r="G16" s="41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.752</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="16">
+        <v>32</v>
+      </c>
+      <c r="C19" s="16">
+        <v>26.1</v>
+      </c>
+      <c r="D19" s="16">
+        <v>26.3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>25</v>
+      </c>
+      <c r="F19" s="16">
+        <v>12.4</v>
+      </c>
+      <c r="G19" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="16">
+        <v>10</v>
+      </c>
+      <c r="C20" s="16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D20" s="16">
+        <v>10.3</v>
+      </c>
+      <c r="E20" s="16">
+        <v>10</v>
+      </c>
+      <c r="F20" s="16">
+        <v>18.2</v>
+      </c>
+      <c r="G20" s="17">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="C21" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="E21" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="G21" s="17">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="C22" s="16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D22" s="16">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E22" s="16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F22" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="G22" s="17">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="16">
+        <v>42.2</v>
+      </c>
+      <c r="C23" s="16">
+        <v>47.8</v>
+      </c>
+      <c r="D23" s="16">
+        <v>41.2</v>
+      </c>
+      <c r="E23" s="16">
+        <v>42.4</v>
+      </c>
+      <c r="F23" s="16">
+        <v>55</v>
+      </c>
+      <c r="G23" s="17">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="16">
+        <v>85.4</v>
+      </c>
+      <c r="C25" s="16">
+        <v>91</v>
+      </c>
+      <c r="D25" s="16">
+        <v>75</v>
+      </c>
+      <c r="E25" s="16">
+        <v>85</v>
+      </c>
+      <c r="F25" s="16">
+        <v>87</v>
+      </c>
+      <c r="G25" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="16">
+        <v>9462</v>
+      </c>
+      <c r="C26" s="16">
+        <v>7843</v>
+      </c>
+      <c r="D26" s="16">
+        <v>11037</v>
+      </c>
+      <c r="E26" s="16">
+        <v>9461</v>
+      </c>
+      <c r="F26" s="16">
+        <v>7131</v>
+      </c>
+      <c r="G26" s="17">
+        <v>6308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="16">
+        <v>1909</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1459</v>
+      </c>
+      <c r="D27" s="16">
+        <v>2090</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1718</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1013</v>
+      </c>
+      <c r="G27" s="17">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C28" s="16">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.105</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="F28" s="16">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G28" s="17">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16">
+        <v>43.6</v>
+      </c>
+      <c r="C29" s="16">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D29" s="16">
+        <v>47.7</v>
+      </c>
+      <c r="E29" s="16">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F29" s="16">
+        <v>23.1</v>
+      </c>
+      <c r="G29" s="17">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16">
+        <v>11.7</v>
+      </c>
+      <c r="C30" s="16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D30" s="16">
+        <v>13.7</v>
+      </c>
+      <c r="E30" s="16">
+        <v>11.7</v>
+      </c>
+      <c r="F30" s="16">
+        <v>20.9</v>
+      </c>
+      <c r="G30" s="17">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="C31" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="D31" s="16">
+        <v>15.7</v>
+      </c>
+      <c r="E31" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="F31" s="16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G31" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16">
+        <v>6.69</v>
+      </c>
+      <c r="C32" s="16">
+        <v>5.14</v>
+      </c>
+      <c r="D32" s="16">
+        <v>7.71</v>
+      </c>
+      <c r="E32" s="16">
+        <v>6.26</v>
+      </c>
+      <c r="F32" s="16">
+        <v>4.91</v>
+      </c>
+      <c r="G32" s="17">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="16">
+        <v>36.1</v>
+      </c>
+      <c r="C33" s="16">
+        <v>43.5</v>
+      </c>
+      <c r="D33" s="16">
+        <v>30.9</v>
+      </c>
+      <c r="E33" s="16">
+        <v>36.1</v>
+      </c>
+      <c r="F33" s="16">
+        <v>47.8</v>
+      </c>
+      <c r="G33" s="17">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="D35" s="16">
+        <v>3.32</v>
+      </c>
+      <c r="E35" s="16">
+        <v>2.16</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1.61</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="16">
+        <v>14.6</v>
+      </c>
+      <c r="C36" s="16">
+        <v>9</v>
+      </c>
+      <c r="D36" s="16">
+        <v>25</v>
+      </c>
+      <c r="E36" s="16">
+        <v>15</v>
+      </c>
+      <c r="F36" s="16">
+        <v>13</v>
+      </c>
+      <c r="G36" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="21">
+        <v>26</v>
+      </c>
+      <c r="C37" s="21">
+        <v>18</v>
+      </c>
+      <c r="D37" s="21">
         <v>49</v>
       </c>
-      <c r="B6" s="23">
-        <f>B3/B4*B5</f>
-        <v>41.856925418569254</v>
-      </c>
-      <c r="C6" s="23">
-        <f>C3/C4*C5</f>
-        <v>126.17960426179603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <f>'Table 2'!C10</f>
-        <v>2.39</v>
-      </c>
-      <c r="C11">
-        <f>'Table 2'!G10</f>
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>1E-3</v>
-      </c>
-      <c r="C12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="26">
-        <f>B11*B12*B13</f>
-        <v>2.39</v>
-      </c>
-      <c r="C14" s="26">
-        <f>C11*C12*C13</f>
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <f>'Table 2'!C11</f>
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="C19">
-        <f>'Table 2'!G11</f>
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
-      <c r="C20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21">
-        <v>3412</v>
-      </c>
-      <c r="C21">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22">
-        <f>B19*B20*B21</f>
-        <v>460620</v>
-      </c>
-      <c r="C22">
-        <f>C19*C20*C21</f>
-        <v>1013364</v>
+      <c r="E37" s="21">
+        <v>32</v>
+      </c>
+      <c r="F37" s="21">
+        <v>49</v>
+      </c>
+      <c r="G37" s="22">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1893,87 +2556,392 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="7" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="28">
-        <f>Calculations!B6</f>
-        <v>41.856925418569254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="28">
-        <f>Calculations!C6</f>
-        <v>126.17960426179603</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E9" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E10" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E11" s="35">
+        <v>2050</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D13" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>1688</v>
+      </c>
+      <c r="F13">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D14" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>7.18</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D15" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>7493</v>
+      </c>
+      <c r="F15">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D16" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="33">
+        <f>E13-F13</f>
+        <v>905</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D17" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="33">
+        <f>E14-F14</f>
+        <v>4.18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D18" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="33">
+        <f>E26*E15/1000000</f>
+        <v>0.35816539999999997</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="E21" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="E26">
+        <v>47.8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2">
-        <f>Calculations!B14</f>
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <f>Calculations!C14</f>
-        <v>4.68</v>
+        <f>'Table Texas'!G9</f>
+        <v>905</v>
+      </c>
+      <c r="C3">
+        <f>'Table Texas'!G9</f>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <f>'Table Texas'!G13</f>
+        <v>6570</v>
+      </c>
+      <c r="C4">
+        <f>'Table Texas'!G13</f>
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="23">
+        <f>B3/B4*B5</f>
+        <v>137.74733637747335</v>
+      </c>
+      <c r="C6" s="23">
+        <f>C3/C4*C5</f>
+        <v>137.74733637747335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f>'Table Texas'!G10</f>
+        <v>4.18</v>
+      </c>
+      <c r="C11">
+        <f>'Table Texas'!G10</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>1E-3</v>
+      </c>
+      <c r="C12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="26">
+        <f>B11*B12*B13</f>
+        <v>4.18</v>
+      </c>
+      <c r="C14" s="26">
+        <f>C11*C12*C13</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="31">
+        <f>'Table Texas'!G11</f>
+        <v>0.35816539999999997</v>
+      </c>
+      <c r="C19" s="31">
+        <f>'Table Texas'!G11</f>
+        <v>0.35816539999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21">
+        <v>3412</v>
+      </c>
+      <c r="C21">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="32">
+        <f>B19*B20*B21</f>
+        <v>1222060.3447999998</v>
+      </c>
+      <c r="C22" s="32">
+        <f>C19*C20*C21</f>
+        <v>1222060.3447999998</v>
       </c>
     </row>
   </sheetData>
@@ -1989,36 +2957,124 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="28">
+        <f>Calculations!B6</f>
+        <v>137.74733637747335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="28">
+        <f>Calculations!C6</f>
+        <v>137.74733637747335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <f>Calculations!B14</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <f>Calculations!C14</f>
+        <v>4.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>61</v>
       </c>
       <c r="B2">
         <f>Calculations!B22</f>
-        <v>460620</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>1222060.3447999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="B3">
         <f>Calculations!C22</f>
-        <v>1013364</v>
+        <v>1222060.3447999998</v>
       </c>
     </row>
   </sheetData>
